--- a/src/Mitre_Matrix.xlsx
+++ b/src/Mitre_Matrix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,85 +441,35 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Collection T1005</t>
+          <t>Collection T1412</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Collection T1213</t>
+          <t>Command and Control T1105</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Collection T1412</t>
+          <t>Command and Control T1573</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Collection T1429</t>
+          <t>Credential Access T1412</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Command and Control T1071</t>
+          <t>Defense Evasion T1027</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Command and Control T1105</t>
+          <t>Execution T1402</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Command and Control T1573</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Credential Access T1412</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Defense Evasion T1027</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Defense Evasion T1480</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Defense Evasion T1497</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Discovery T1497</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Discovery T1518.001</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Discovery T1614</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Execution T1402</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Impact T1582</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Persistence T1402</t>
         </is>
@@ -530,45 +480,39 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>63</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+        <v>66</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>X</t>
         </is>
@@ -579,45 +523,39 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>73</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+        <v>67</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>X</t>
         </is>
@@ -628,45 +566,39 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>74</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+        <v>68</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>X</t>
         </is>
@@ -677,7 +609,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -689,8 +621,16 @@
           <t>X</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr">
         <is>
           <t>X</t>
@@ -702,378 +642,6 @@
         </is>
       </c>
       <c r="I5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>79</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>80</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>84</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>85</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>89</v>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>90</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr">
         <is>
           <t>X</t>
         </is>

--- a/src/Mitre_Matrix.xlsx
+++ b/src/Mitre_Matrix.xlsx
@@ -1,37 +1,103 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Home\Fall 2023\Capstone Project\Dev\Zorivis\src\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611D529C-E5DD-4A18-AFED-5753801EFCED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="18">
+  <si>
+    <t>trojan_id</t>
+  </si>
+  <si>
+    <t>Collection T1114</t>
+  </si>
+  <si>
+    <t>Collection T1412</t>
+  </si>
+  <si>
+    <t>Collection T1429</t>
+  </si>
+  <si>
+    <t>Command and Control T1071</t>
+  </si>
+  <si>
+    <t>Command and Control T1105</t>
+  </si>
+  <si>
+    <t>Command and Control T1132</t>
+  </si>
+  <si>
+    <t>Command and Control T1573</t>
+  </si>
+  <si>
+    <t>Credential Access T1412</t>
+  </si>
+  <si>
+    <t>Defense Evasion T1027</t>
+  </si>
+  <si>
+    <t>Defense Evasion T1140</t>
+  </si>
+  <si>
+    <t>Discovery T1518.001</t>
+  </si>
+  <si>
+    <t>Execution T1402</t>
+  </si>
+  <si>
+    <t>Exfiltration T1041</t>
+  </si>
+  <si>
+    <t>Impact T1491.001</t>
+  </si>
+  <si>
+    <t>Impact T1582</t>
+  </si>
+  <si>
+    <t>Persistence T1402</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +112,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,234 +436,345 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>trojan_id</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Collection T1412</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Command and Control T1105</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Command and Control T1573</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Credential Access T1412</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Defense Evasion T1027</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Execution T1402</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Persistence T1402</t>
-        </is>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>66</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>67</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>80</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>68</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>81</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>69</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>83</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>103</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>104</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>105</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" t="s">
+        <v>17</v>
+      </c>
+      <c r="P8" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A8F230A-262F-48FE-B6CD-745BE504D3F4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/Mitre_Matrix.xlsx
+++ b/src/Mitre_Matrix.xlsx
@@ -5,23 +5,23 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Home\Fall 2023\Capstone Project\Dev\Zorivis\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\GitHub\Havasu\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611D529C-E5DD-4A18-AFED-5753801EFCED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838937CD-2869-4ACD-894F-FD4695EE7647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="19">
   <si>
     <t>trojan_id</t>
   </si>
@@ -29,7 +29,7 @@
     <t>Collection T1114</t>
   </si>
   <si>
-    <t>Collection T1412</t>
+    <t>Collection T1213</t>
   </si>
   <si>
     <t>Collection T1429</t>
@@ -38,6 +38,9 @@
     <t>Command and Control T1071</t>
   </si>
   <si>
+    <t>Command and Control T1095</t>
+  </si>
+  <si>
     <t>Command and Control T1105</t>
   </si>
   <si>
@@ -47,27 +50,24 @@
     <t>Command and Control T1573</t>
   </si>
   <si>
-    <t>Credential Access T1412</t>
-  </si>
-  <si>
     <t>Defense Evasion T1027</t>
   </si>
   <si>
-    <t>Defense Evasion T1140</t>
-  </si>
-  <si>
-    <t>Discovery T1518.001</t>
+    <t>Defense Evasion T1480</t>
+  </si>
+  <si>
+    <t>Defense Evasion T1497</t>
+  </si>
+  <si>
+    <t>Discovery T1016</t>
+  </si>
+  <si>
+    <t>Discovery T1497</t>
   </si>
   <si>
     <t>Execution T1402</t>
   </si>
   <si>
-    <t>Exfiltration T1041</t>
-  </si>
-  <si>
-    <t>Impact T1491.001</t>
-  </si>
-  <si>
     <t>Impact T1582</t>
   </si>
   <si>
@@ -75,13 +75,16 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +97,20 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -103,7 +120,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -126,14 +143,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -437,23 +495,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A1:Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -513,24 +568,36 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
       <c r="D2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
         <v>17</v>
       </c>
       <c r="I2" t="s">
         <v>17</v>
       </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
       <c r="M2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" t="s">
         <v>17</v>
       </c>
       <c r="P2" t="s">
@@ -542,21 +609,18 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>80</v>
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
       <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="H3" t="s">
+      <c r="G3" t="s">
         <v>17</v>
       </c>
       <c r="I3" t="s">
@@ -568,45 +632,21 @@
       <c r="L3" t="s">
         <v>17</v>
       </c>
-      <c r="M3" t="s">
-        <v>17</v>
-      </c>
-      <c r="P3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q3" t="s">
+      <c r="N3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>81</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="G4" t="s">
         <v>17</v>
       </c>
       <c r="J4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" t="s">
-        <v>17</v>
-      </c>
-      <c r="N4" t="s">
         <v>17</v>
       </c>
       <c r="O4" t="s">
@@ -621,144 +661,21 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>83</v>
+        <v>115</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="G5" t="s">
         <v>17</v>
       </c>
       <c r="I5" t="s">
         <v>17</v>
       </c>
       <c r="J5" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" t="s">
-        <v>17</v>
-      </c>
-      <c r="P5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>103</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" t="s">
-        <v>17</v>
-      </c>
-      <c r="M6" t="s">
-        <v>17</v>
-      </c>
-      <c r="P6" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>104</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M7" t="s">
-        <v>17</v>
-      </c>
-      <c r="N7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>105</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" t="s">
-        <v>17</v>
-      </c>
-      <c r="M8" t="s">
-        <v>17</v>
-      </c>
-      <c r="P8" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -768,13 +685,213 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A8F230A-262F-48FE-B6CD-745BE504D3F4}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDF5D122-943B-46BE-B8C8-0B74B8E3CDEA}">
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="3" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="4" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="5">
+        <v>44</v>
+      </c>
+      <c r="C1" s="5">
+        <v>45</v>
+      </c>
+      <c r="D1" s="5">
+        <v>114</v>
+      </c>
+      <c r="E1" s="5">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/Mitre_Matrix.xlsx
+++ b/src/Mitre_Matrix.xlsx
@@ -5,30 +5,33 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Home\Fall 2023\Capstone Project\Dev\Zorivis\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mnscu-my.sharepoint.com/personal/oh3080hr_go_minnstate_edu/Documents/HOME/Fall 2023/Capstone Project/Dev/Zorivis/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611D529C-E5DD-4A18-AFED-5753801EFCED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="11_2BB1D69C5B70D479DF783011592DA8F3450BEE78" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AABDC143-9366-4F9D-9F36-6C2DF97841A9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="18">
-  <si>
-    <t>trojan_id</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="20">
+  <si>
+    <t>Collection T1005</t>
   </si>
   <si>
     <t>Collection T1114</t>
   </si>
   <si>
+    <t>Collection T1213</t>
+  </si>
+  <si>
     <t>Collection T1412</t>
   </si>
   <si>
@@ -38,6 +41,9 @@
     <t>Command and Control T1071</t>
   </si>
   <si>
+    <t>Command and Control T1095</t>
+  </si>
+  <si>
     <t>Command and Control T1105</t>
   </si>
   <si>
@@ -53,21 +59,18 @@
     <t>Defense Evasion T1027</t>
   </si>
   <si>
-    <t>Defense Evasion T1140</t>
-  </si>
-  <si>
-    <t>Discovery T1518.001</t>
+    <t>Defense Evasion T1497</t>
+  </si>
+  <si>
+    <t>Discovery T1497</t>
+  </si>
+  <si>
+    <t>Discovery T1614</t>
   </si>
   <si>
     <t>Execution T1402</t>
   </si>
   <si>
-    <t>Exfiltration T1041</t>
-  </si>
-  <si>
-    <t>Impact T1491.001</t>
-  </si>
-  <si>
     <t>Impact T1582</t>
   </si>
   <si>
@@ -75,13 +78,16 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +100,20 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -103,7 +123,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -126,14 +146,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -437,329 +498,357 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A1:T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>55</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
+        <v>63</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>18</v>
       </c>
       <c r="Q2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="R2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>80</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" t="s">
-        <v>17</v>
-      </c>
-      <c r="P3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="R3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>81</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" t="s">
-        <v>17</v>
-      </c>
-      <c r="N4" t="s">
-        <v>17</v>
-      </c>
-      <c r="O4" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="L4" t="s">
+        <v>18</v>
       </c>
       <c r="Q4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="R4" t="s">
+        <v>18</v>
+      </c>
+      <c r="S4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>83</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
+        <v>79</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="K5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" t="s">
+        <v>18</v>
       </c>
       <c r="M5" t="s">
-        <v>17</v>
-      </c>
-      <c r="P5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="R5" t="s">
+        <v>18</v>
+      </c>
+      <c r="S5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>103</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
+        <v>84</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
-      </c>
-      <c r="M6" t="s">
-        <v>17</v>
-      </c>
-      <c r="P6" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="K6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" t="s">
+        <v>18</v>
       </c>
       <c r="Q6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="R6" t="s">
+        <v>18</v>
+      </c>
+      <c r="S6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>104</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M7" t="s">
-        <v>17</v>
-      </c>
-      <c r="N7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P7" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="K7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" t="s">
+        <v>18</v>
       </c>
       <c r="Q7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="R7" t="s">
+        <v>18</v>
+      </c>
+      <c r="S7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>105</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M8" t="s">
-        <v>17</v>
-      </c>
-      <c r="P8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q8" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="S8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>90</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P9" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>18</v>
+      </c>
+      <c r="S9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>93</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" t="s">
+        <v>18</v>
+      </c>
+      <c r="S10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>98</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O11" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -768,13 +857,372 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A8F230A-262F-48FE-B6CD-745BE504D3F4}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{234769B5-59D9-4D9F-B9EC-8DB40C1DF6DC}">
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="3" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="3">
+        <v>63</v>
+      </c>
+      <c r="C1" s="3">
+        <v>73</v>
+      </c>
+      <c r="D1" s="3">
+        <v>74</v>
+      </c>
+      <c r="E1" s="3">
+        <v>79</v>
+      </c>
+      <c r="F1" s="3">
+        <v>84</v>
+      </c>
+      <c r="G1" s="3">
+        <v>85</v>
+      </c>
+      <c r="H1" s="3">
+        <v>89</v>
+      </c>
+      <c r="I1" s="3">
+        <v>90</v>
+      </c>
+      <c r="J1" s="3">
+        <v>93</v>
+      </c>
+      <c r="K1" s="3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>